--- a/W7/D4/EXERCISE XP/Filming Over.xlsx
+++ b/W7/D4/EXERCISE XP/Filming Over.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teitelbaumsair/Desktop/DI_Bootcamp/W7/D4/EXERCISE XP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teitelbaumsair/Desktop/Data Bootcamp/W7/D4/EXERCISE XP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0B079A0-C537-8E46-8AEE-2B7F376B42D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{587A2D94-D404-D340-B6DB-421248FDE337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
